--- a/calculations/Ta_Co/data.xlsx
+++ b/calculations/Ta_Co/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -25,6 +25,12 @@
     <t>minor_element</t>
   </si>
   <si>
+    <t>Co_index</t>
+  </si>
+  <si>
+    <t>Ta_index</t>
+  </si>
+  <si>
     <t>lattice_a</t>
   </si>
   <si>
@@ -37,6 +43,9 @@
     <t>supercell_size</t>
   </si>
   <si>
+    <t>coef</t>
+  </si>
+  <si>
     <t>proto_major</t>
   </si>
   <si>
@@ -73,6 +82,24 @@
     <t>False</t>
   </si>
   <si>
+    <t>L12-Co3Ta</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Cu3Au</t>
+  </si>
+  <si>
+    <t>5910053.cif</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>Co2Ta(C36)</t>
   </si>
   <si>
@@ -94,15 +121,9 @@
     <t>P63/mmc</t>
   </si>
   <si>
-    <t xml:space="preserve">True </t>
-  </si>
-  <si>
     <t>Co2Ta(C15)</t>
   </si>
   <si>
-    <t>Cu</t>
-  </si>
-  <si>
     <t>Cu2Mg</t>
   </si>
   <si>
@@ -124,6 +145,24 @@
     <t>5910078MgZn2.cif</t>
   </si>
   <si>
+    <t>B2-CoTa</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>CsCl</t>
+  </si>
+  <si>
+    <t>9009743.cif</t>
+  </si>
+  <si>
+    <t>https://www.crystallography.net/cod/9009743.html</t>
+  </si>
+  <si>
     <t>Co6Ta7</t>
   </si>
   <si>
@@ -148,40 +187,13 @@
     <t>Al2Cu</t>
   </si>
   <si>
-    <t>9012196.cif</t>
+    <t>Al2Cu.cif</t>
   </si>
   <si>
     <t>https://www.crystallography.net/cod//9012196.html</t>
   </si>
   <si>
     <t>I4/mcm</t>
-  </si>
-  <si>
-    <t>B2-CoTa</t>
-  </si>
-  <si>
-    <t>Cs</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>CsCl</t>
-  </si>
-  <si>
-    <t>9009743.cif</t>
-  </si>
-  <si>
-    <t>https://www.crystallography.net/cod/9009743.html</t>
-  </si>
-  <si>
-    <t>L12-Co3Ta</t>
-  </si>
-  <si>
-    <t>Au</t>
-  </si>
-  <si>
-    <t>Cu3Au</t>
   </si>
   <si>
     <t>D019-χ-CoTa3</t>
@@ -204,7 +216,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +227,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -267,10 +273,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,29 +287,29 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -333,7 +342,7 @@
         <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4F818D"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="C0504D"/>
@@ -604,26 +613,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="48.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -642,19 +654,19 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -669,396 +681,738 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
         <v>5.19</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="7">
         <v>5.19</v>
       </c>
-      <c r="F2" s="5">
+      <c r="H2" s="7">
         <v>18.87</v>
       </c>
-      <c r="G2" s="6">
+      <c r="I2" s="6">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3.64</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3.64</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3.64</v>
+      </c>
+      <c r="I3" s="6">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
         <v>4.76</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G4" s="7">
         <v>4.76</v>
       </c>
-      <c r="F3" s="5">
+      <c r="H4" s="7">
         <v>15.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="I4" s="6">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6.78</v>
+      </c>
+      <c r="G5" s="7">
+        <v>6.78</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6.78</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>22</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.86</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3.07</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3.07</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3.07</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>22</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4.93</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4.93</v>
+      </c>
+      <c r="H8" s="7">
+        <v>26.44</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6">
+        <v>22</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6.12</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6.12</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4.97</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="F10" s="7">
+        <v>4.03</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4.03</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4.03</v>
+      </c>
+      <c r="I10" s="6">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
+      <c r="K10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6.78</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6.78</v>
-      </c>
-      <c r="F4" s="5">
-        <v>6.78</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4.84</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4.84</v>
-      </c>
-      <c r="F5" s="5">
-        <v>7.86</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4.93</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4.93</v>
-      </c>
-      <c r="F6" s="5">
-        <v>26.44</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6.12</v>
-      </c>
-      <c r="E7" s="5">
-        <v>6.12</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4.97</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3.07</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3.07</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3.07</v>
-      </c>
-      <c r="G8" s="6">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3.64</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3.64</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3.64</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4.03</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.03</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4.03</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
